--- a/실무_엑셀_예제_파일/Chapter06/06-006.xlsx
+++ b/실무_엑셀_예제_파일/Chapter06/06-006.xlsx
@@ -1,43 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBECFBD-3FAD-4489-AF9F-00C3ED721281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132A2AD9-7F05-4FDD-9FDD-B115EB3EB30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{F4D5B629-FAE8-4DC8-AAFB-98E0C6403F89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{F4D5B629-FAE8-4DC8-AAFB-98E0C6403F89}"/>
   </bookViews>
   <sheets>
     <sheet name="헬로마트입고내역" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">헬로마트입고내역!$B$4:$D$53</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
   <si>
     <t>제품명</t>
   </si>
@@ -70,12 +65,31 @@
     <t>입고수량</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>행 레이블</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>합계 : 입고수량</t>
+  </si>
+  <si>
+    <t>열 레이블</t>
+  </si>
+  <si>
+    <t>입고합계</t>
+  </si>
+  <si>
+    <t>입고비율</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;\-;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -154,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,8 +193,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -197,6 +226,489 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="황태훈" refreshedDate="45769.208827314818" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="49" xr:uid="{D0477CB4-2DAB-41FE-B6FF-DF4699600869}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:D53" sheet="헬로마트입고내역"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="제품명" numFmtId="0">
+      <sharedItems count="7">
+        <s v="컴퓨터"/>
+        <s v="모니터"/>
+        <s v="책상"/>
+        <s v="의자"/>
+        <s v="선풍기"/>
+        <s v="냉장고"/>
+        <s v="에어컨"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="입고일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-04-01T00:00:00" maxDate="2025-04-08T00:00:00" count="7">
+        <d v="2025-04-01T00:00:00"/>
+        <d v="2025-04-02T00:00:00"/>
+        <d v="2025-04-03T00:00:00"/>
+        <d v="2025-04-04T00:00:00"/>
+        <d v="2025-04-05T00:00:00"/>
+        <d v="2025-04-06T00:00:00"/>
+        <d v="2025-04-07T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="입고수량" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="49">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="20"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32C27381-078C-41C4-AEC7-A8830A58AF39}" name="피벗 테이블1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G4:O13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" numFmtId="14" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 입고수량" fld="2" showDataAs="runTotal" baseField="1" baseItem="0" numFmtId="41"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat scope="field" priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="0" selected="0"/>
+            <reference field="1" count="0" selected="0"/>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36C633E3-A58D-411B-824F-CD33A3AD47EF}" name="피벗 테이블1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="입고합계" fld="2" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="입고비율" fld="2" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,31 +1008,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8999740-068B-4978-8F92-8417DAFFC469}">
-  <dimension ref="B1:D53"/>
+  <dimension ref="B1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="16" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="4.625" customWidth="1"/>
-    <col min="6" max="28" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="4.58203125" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="28" width="3.83203125" customWidth="1"/>
     <col min="29" max="30" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="str">
+    <row r="1" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:15" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="12" t="str">
         <f ca="1">"헬로마트 " &amp; YEAR(TODAY()) &amp; "년 1월 입고내역"</f>
-        <v>헬로마트 2022년 1월 입고내역</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+        <v>헬로마트 2025년 1월 입고내역</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,590 +1048,823 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="7">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),1)</f>
-        <v>44593</v>
+        <v>45748</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10">
+        <v>45748</v>
+      </c>
+      <c r="I5" s="10">
+        <v>45749</v>
+      </c>
+      <c r="J5" s="10">
+        <v>45750</v>
+      </c>
+      <c r="K5" s="10">
+        <v>45751</v>
+      </c>
+      <c r="L5" s="10">
+        <v>45752</v>
+      </c>
+      <c r="M5" s="10">
+        <v>45753</v>
+      </c>
+      <c r="N5" s="10">
+        <v>45754</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7">
         <f ca="1">C5+1</f>
-        <v>44594</v>
+        <v>45749</v>
       </c>
       <c r="D6" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11">
+        <v>20</v>
+      </c>
+      <c r="J6" s="11">
+        <v>20</v>
+      </c>
+      <c r="K6" s="11">
+        <v>30</v>
+      </c>
+      <c r="L6" s="11">
+        <v>30</v>
+      </c>
+      <c r="M6" s="11">
+        <v>50</v>
+      </c>
+      <c r="N6" s="11">
+        <v>65</v>
+      </c>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" ref="C7:C11" ca="1" si="0">C6+1</f>
-        <v>44595</v>
+        <v>45750</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>20</v>
+      </c>
+      <c r="J7" s="11">
+        <v>35</v>
+      </c>
+      <c r="K7" s="11">
+        <v>40</v>
+      </c>
+      <c r="L7" s="11">
+        <v>40</v>
+      </c>
+      <c r="M7" s="11">
+        <v>45</v>
+      </c>
+      <c r="N7" s="11">
+        <v>45</v>
+      </c>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>44596</v>
+        <v>45751</v>
       </c>
       <c r="D8" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>15</v>
+      </c>
+      <c r="L8" s="11">
+        <v>25</v>
+      </c>
+      <c r="M8" s="11">
+        <v>25</v>
+      </c>
+      <c r="N8" s="11">
+        <v>35</v>
+      </c>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>44597</v>
+        <v>45752</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>5</v>
+      </c>
+      <c r="K9" s="11">
+        <v>10</v>
+      </c>
+      <c r="L9" s="11">
+        <v>10</v>
+      </c>
+      <c r="M9" s="11">
+        <v>15</v>
+      </c>
+      <c r="N9" s="11">
+        <v>35</v>
+      </c>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>44598</v>
+        <v>45753</v>
       </c>
       <c r="D10" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11">
+        <v>20</v>
+      </c>
+      <c r="K10" s="11">
+        <v>20</v>
+      </c>
+      <c r="L10" s="11">
+        <v>30</v>
+      </c>
+      <c r="M10" s="11">
+        <v>30</v>
+      </c>
+      <c r="N10" s="11">
+        <v>45</v>
+      </c>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>44599</v>
+        <v>45754</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="11">
+        <v>25</v>
+      </c>
+      <c r="J11" s="11">
+        <v>25</v>
+      </c>
+      <c r="K11" s="11">
+        <v>30</v>
+      </c>
+      <c r="L11" s="11">
+        <v>45</v>
+      </c>
+      <c r="M11" s="11">
+        <v>45</v>
+      </c>
+      <c r="N11" s="11">
+        <v>45</v>
+      </c>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="7">
         <f ca="1">C5</f>
-        <v>44593</v>
+        <v>45748</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>15</v>
+      </c>
+      <c r="J12" s="11">
+        <v>15</v>
+      </c>
+      <c r="K12" s="11">
+        <v>35</v>
+      </c>
+      <c r="L12" s="11">
+        <v>35</v>
+      </c>
+      <c r="M12" s="11">
+        <v>40</v>
+      </c>
+      <c r="N12" s="11">
+        <v>50</v>
+      </c>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" ref="C13:C53" ca="1" si="1">C6</f>
-        <v>44594</v>
+        <v>45749</v>
       </c>
       <c r="D13" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="11">
+        <v>30</v>
+      </c>
+      <c r="I13" s="11">
+        <v>90</v>
+      </c>
+      <c r="J13" s="11">
+        <v>120</v>
+      </c>
+      <c r="K13" s="11">
+        <v>180</v>
+      </c>
+      <c r="L13" s="11">
+        <v>215</v>
+      </c>
+      <c r="M13" s="11">
+        <v>250</v>
+      </c>
+      <c r="N13" s="11">
+        <v>320</v>
+      </c>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>45750</v>
       </c>
       <c r="D14" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>45751</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44597</v>
+        <v>45752</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44598</v>
+        <v>45753</v>
       </c>
       <c r="D17" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>45754</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>45748</v>
       </c>
       <c r="D19" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>45749</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>45750</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>45751</v>
       </c>
       <c r="D22" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44597</v>
+        <v>45752</v>
       </c>
       <c r="D23" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44598</v>
+        <v>45753</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>45754</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>45748</v>
       </c>
       <c r="D26" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>45749</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>45750</v>
       </c>
       <c r="D28" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>45751</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44597</v>
+        <v>45752</v>
       </c>
       <c r="D30" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44598</v>
+        <v>45753</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>45754</v>
       </c>
       <c r="D32" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>45748</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>45749</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>45750</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>45751</v>
       </c>
       <c r="D36" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44597</v>
+        <v>45752</v>
       </c>
       <c r="D37" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44598</v>
+        <v>45753</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>45754</v>
       </c>
       <c r="D39" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>45748</v>
       </c>
       <c r="D40" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>45749</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>45750</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>45751</v>
       </c>
       <c r="D43" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44597</v>
+        <v>45752</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44598</v>
+        <v>45753</v>
       </c>
       <c r="D45" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>45754</v>
       </c>
       <c r="D46" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44593</v>
+        <v>45748</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>45749</v>
       </c>
       <c r="D48" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>45750</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44596</v>
+        <v>45751</v>
       </c>
       <c r="D50" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44597</v>
+        <v>45752</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44598</v>
+        <v>45753</v>
       </c>
       <c r="D52" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44599</v>
+        <v>45754</v>
       </c>
       <c r="D53" s="4">
         <v>20</v>
@@ -1124,6 +1875,136 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting pivot="1" sqref="H6:N12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18425974-FD16-4826-B52E-9A7D372AA56A}">
+  <dimension ref="A4:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>65</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>35</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>50</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>320</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>